--- a/sample/Sample.xlsx
+++ b/sample/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boozilla/IdeaProjects/asset-cli/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D9A729-64EC-D242-A0A1-14898F61648E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC700BF-0BBC-FF4F-B6BE-C6354A64B633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2100" windowWidth="37800" windowHeight="24560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="2100" windowWidth="37800" windowHeight="24560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleData" sheetId="1" r:id="rId1"/>
@@ -1825,9 +1825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2064,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF5915-828B-43C8-AD1F-89FBEC1D444F}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>

--- a/sample/Sample.xlsx
+++ b/sample/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boozilla/IdeaProjects/asset-cli/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC700BF-0BBC-FF4F-B6BE-C6354A64B633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E80BDB7-28CB-9F44-BF7E-E66B21B9B6C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2100" windowWidth="37800" windowHeight="24560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3940" yWindow="2100" windowWidth="37800" windowHeight="24560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SampleData" sheetId="1" r:id="rId1"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SampleData</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>30</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleData[100~111, 112]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1825,7 +1825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:B3"/>
     </sheetView>
@@ -1858,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="G2" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>15</v>
@@ -2003,10 +2003,10 @@
         <v>27</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2014,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2024,10 +2024,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2035,7 +2035,7 @@
         <v>21</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2064,9 +2064,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDF5915-828B-43C8-AD1F-89FBEC1D444F}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2074,7 +2074,7 @@
     <col min="1" max="1" width="48.6640625" style="27" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="27" customWidth="1"/>
     <col min="3" max="4" width="11.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="12" customWidth="1"/>
     <col min="7" max="7" width="76.1640625" customWidth="1"/>
   </cols>
@@ -2091,16 +2091,16 @@
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="4"/>
@@ -2114,13 +2114,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="5"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="10" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="9"/>
@@ -2208,7 +2208,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>33</v>
@@ -2237,7 +2237,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>34</v>
